--- a/●회계/1학기.xlsx
+++ b/●회계/1학기.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\kyungheeUNIV\●회계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429EC711-FD9D-4943-9296-EFC6DD5A8EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4018E97-434B-4436-8365-640FCA88F590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>2월 지출내역</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -369,6 +369,38 @@
   </si>
   <si>
     <t>옥텟 동아리 2023년 1학기(2월~6월) $ 지출내역 $</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스타벅스 상품</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>늦참인원 택시비 지원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>당일 마트에서 추가물품구매</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보험비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>펜션 추가금액</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>버스대여비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>종강 엠티</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -380,7 +412,7 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -409,14 +441,6 @@
       <charset val="129"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="major"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -439,22 +463,6 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -482,8 +490,55 @@
       <charset val="129"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000099"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -510,18 +565,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FF990033"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF990033"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="64">
     <border>
       <left/>
       <right/>
@@ -530,19 +639,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="double">
         <color indexed="64"/>
@@ -553,15 +649,6 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -589,21 +676,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -645,21 +717,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="hair">
@@ -696,21 +753,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -998,19 +1040,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="hair">
@@ -1078,6 +1107,306 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1089,174 +1418,427 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="7" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="7" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="9" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="9" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="9" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="7" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="9" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="9" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="9" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="9" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="7" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="7" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="9" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="9" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="4" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="12" fillId="13" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="13" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="13" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="13" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="13" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="13" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="13" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="7" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="7" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="3" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="3" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="13" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="13" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="9" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="9" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="13" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="13" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="15" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="15" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="15" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="15" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="15" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="15" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="15" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="15" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="15" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="15" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="15" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="4" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="4" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="3" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="9" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="9" borderId="56" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="4" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="4" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="13" fillId="3" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="3" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="6" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="6" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="6" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="6" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="13" fontId="11" fillId="8" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="8" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="8" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="8" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="2" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="2" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="3" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="8" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="10" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="10" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="10" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="10" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="2" borderId="60" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="2" borderId="61" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="10" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="13" fontId="11" fillId="10" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="13" fontId="11" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="6" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="6" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="6" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="12" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="12" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="12" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="8" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="13" fontId="11" fillId="12" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="13" fontId="11" fillId="12" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="11" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="11" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="13" fontId="11" fillId="11" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="13" fontId="11" fillId="11" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="14" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="14" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="14" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="14" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="13" fontId="11" fillId="14" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="13" fontId="11" fillId="14" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="13" fontId="4" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="13" fontId="4" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="13" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="5" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="5" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="13" fillId="3" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="3" borderId="59" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="8" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="8" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="9" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="9" borderId="63" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="9" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="9" borderId="58" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="2" borderId="62" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1268,6 +1850,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF9999"/>
+      <color rgb="FFA957A9"/>
+      <color rgb="FFCC66FF"/>
       <color rgb="FF990033"/>
       <color rgb="FFFF5050"/>
       <color rgb="FFCC0000"/>
@@ -1282,6 +1867,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>261938</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>199918</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D170D2DD-F0E3-836D-C357-DE2FAF8CEF3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16263938" y="11120437"/>
+          <a:ext cx="7772400" cy="6462606"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1547,10 +2187,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P69"/>
+  <dimension ref="A1:Y65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L53" sqref="L53"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AB14" sqref="AB14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1559,1791 +2199,1861 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="102" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2"/>
-      <c r="B1" s="56" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="78" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="2"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="93"/>
+      <c r="D2" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7" t="s">
+      <c r="E2" s="69"/>
+      <c r="F2" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="5" t="s">
+      <c r="G2" s="73"/>
+      <c r="H2" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="5" t="s">
+      <c r="I2" s="73"/>
+      <c r="J2" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="5" t="s">
+      <c r="K2" s="73"/>
+      <c r="L2" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="6"/>
-      <c r="N2" s="5" t="s">
+      <c r="M2" s="73"/>
+      <c r="N2" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="6"/>
-      <c r="P2" s="2"/>
+      <c r="O2" s="85"/>
+      <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="10" t="s">
+      <c r="E3" s="71"/>
+      <c r="F3" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="10" t="s">
+      <c r="G3" s="75"/>
+      <c r="H3" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="10" t="s">
+      <c r="I3" s="75"/>
+      <c r="J3" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="10" t="s">
+      <c r="K3" s="75"/>
+      <c r="L3" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="11"/>
-      <c r="N3" s="10" t="s">
+      <c r="M3" s="75"/>
+      <c r="N3" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="11"/>
-      <c r="P3" s="2"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14" t="s">
+      <c r="A4" s="1"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="6">
         <v>186367</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="8">
         <v>-94590</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="8">
         <f>-9900-3000-47400</f>
         <v>-60300</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="8">
         <v>-4800</v>
       </c>
-      <c r="L4" s="14" t="s">
+      <c r="L4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="15">
+      <c r="M4" s="8">
         <v>-63000</v>
       </c>
-      <c r="N4" s="14" t="s">
+      <c r="N4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="O4" s="15">
+      <c r="O4" s="11">
         <v>-17000</v>
       </c>
-      <c r="P4" s="2"/>
+      <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="2"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="1"/>
     </row>
     <row r="6" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="2"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="1"/>
     </row>
     <row r="7" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="2"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="89"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="1"/>
     </row>
     <row r="8" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="2"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="1"/>
     </row>
     <row r="9" spans="1:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="2"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="90"/>
+      <c r="C9" s="98"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:16" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="57" t="s">
+      <c r="A10" s="1"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="76">
         <f>SUM(E4:E9)</f>
         <v>186367</v>
       </c>
-      <c r="E10" s="29"/>
-      <c r="F10" s="30">
+      <c r="E10" s="77"/>
+      <c r="F10" s="79">
         <f>SUM(G4:G9)</f>
         <v>-94590</v>
       </c>
-      <c r="G10" s="29"/>
-      <c r="H10" s="30">
+      <c r="G10" s="77"/>
+      <c r="H10" s="79">
         <f>SUM(I4:I9)</f>
         <v>-60300</v>
       </c>
-      <c r="I10" s="29"/>
-      <c r="J10" s="30">
+      <c r="I10" s="77"/>
+      <c r="J10" s="79">
         <f t="shared" ref="J10" si="0">SUM(K4:K9)</f>
         <v>-4800</v>
       </c>
-      <c r="K10" s="29"/>
-      <c r="L10" s="30">
+      <c r="K10" s="77"/>
+      <c r="L10" s="79">
         <f t="shared" ref="L10" si="1">SUM(M4:M9)</f>
         <v>-63000</v>
       </c>
-      <c r="M10" s="29"/>
-      <c r="N10" s="30">
+      <c r="M10" s="77"/>
+      <c r="N10" s="79">
         <f t="shared" ref="N10" si="2">SUM(O4:O9)</f>
         <v>-17000</v>
       </c>
-      <c r="O10" s="29"/>
-      <c r="P10" s="2"/>
+      <c r="O10" s="77"/>
+      <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:16" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="58" t="s">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="80">
         <v>186367</v>
       </c>
-      <c r="E11" s="33"/>
-      <c r="F11" s="34">
+      <c r="E11" s="67"/>
+      <c r="F11" s="66">
         <f>SUM(F10,D11)</f>
         <v>91777</v>
       </c>
-      <c r="G11" s="33"/>
-      <c r="H11" s="34">
+      <c r="G11" s="67"/>
+      <c r="H11" s="66">
         <f>SUM(H10,F11)</f>
         <v>31477</v>
       </c>
-      <c r="I11" s="33"/>
-      <c r="J11" s="34">
+      <c r="I11" s="67"/>
+      <c r="J11" s="66">
         <f t="shared" ref="J11" si="3">SUM(J10,H11)</f>
         <v>26677</v>
       </c>
-      <c r="K11" s="33"/>
-      <c r="L11" s="34">
+      <c r="K11" s="67"/>
+      <c r="L11" s="66">
         <f t="shared" ref="L11" si="4">SUM(L10,J11)</f>
         <v>-36323</v>
       </c>
-      <c r="M11" s="33"/>
-      <c r="N11" s="34">
+      <c r="M11" s="67"/>
+      <c r="N11" s="66">
         <f t="shared" ref="N11" si="5">SUM(N10,L11)</f>
         <v>-53323</v>
       </c>
-      <c r="O11" s="33"/>
-      <c r="P11" s="2"/>
+      <c r="O11" s="67"/>
+      <c r="P11" s="1"/>
     </row>
     <row r="12" spans="1:16" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="2"/>
-    </row>
-    <row r="13" spans="1:16" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
-      <c r="B13" s="39" t="s">
+      <c r="A12" s="1"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="1"/>
+      <c r="B13" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="40"/>
-      <c r="D13" s="41" t="s">
+      <c r="C13" s="93"/>
+      <c r="D13" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="42"/>
-      <c r="F13" s="43" t="s">
+      <c r="E13" s="108"/>
+      <c r="F13" s="122" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="44"/>
-      <c r="H13" s="41" t="s">
+      <c r="G13" s="123"/>
+      <c r="H13" s="114" t="s">
         <v>26</v>
       </c>
-      <c r="I13" s="42"/>
-      <c r="J13" s="41" t="s">
+      <c r="I13" s="115"/>
+      <c r="J13" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="K13" s="42"/>
-      <c r="L13" s="41" t="s">
+      <c r="K13" s="117"/>
+      <c r="L13" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="M13" s="42"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="2"/>
-    </row>
-    <row r="14" spans="1:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="46" t="s">
+      <c r="M13" s="115"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="1"/>
+      <c r="B14" s="94"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="47"/>
-      <c r="F14" s="46" t="s">
+      <c r="E14" s="111"/>
+      <c r="F14" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="47"/>
-      <c r="H14" s="46" t="s">
+      <c r="G14" s="121"/>
+      <c r="H14" s="112" t="s">
         <v>27</v>
       </c>
-      <c r="I14" s="47"/>
-      <c r="J14" s="46" t="s">
+      <c r="I14" s="113"/>
+      <c r="J14" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="K14" s="47"/>
-      <c r="L14" s="46" t="s">
+      <c r="K14" s="116"/>
+      <c r="L14" s="112" t="s">
         <v>42</v>
       </c>
-      <c r="M14" s="47"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="2"/>
-    </row>
-    <row r="15" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="14">
+      <c r="M14" s="113"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="5">
         <v>18</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="6">
         <v>90000</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G15" s="11">
         <v>-102500</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="H15" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="15">
+      <c r="I15" s="30">
         <v>-853000</v>
       </c>
-      <c r="J15" s="14" t="s">
+      <c r="J15" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="15">
+      <c r="K15" s="8">
         <v>-130130</v>
       </c>
-      <c r="L15" s="14" t="s">
+      <c r="L15" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="M15" s="15">
+      <c r="M15" s="30">
         <v>-76500</v>
       </c>
-      <c r="N15" s="45"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="2"/>
-    </row>
-    <row r="16" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="19">
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1"/>
+      <c r="B16" s="100"/>
+      <c r="C16" s="97"/>
+      <c r="D16" s="12">
         <v>19</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="13">
         <v>160000</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="20">
+      <c r="G16" s="18">
         <v>-10000</v>
       </c>
-      <c r="H16" s="21" t="s">
+      <c r="H16" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="20">
+      <c r="I16" s="33">
         <f>-43000-44500</f>
         <v>-87500</v>
       </c>
-      <c r="J16" s="19" t="s">
+      <c r="J16" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="K16" s="20">
+      <c r="K16" s="15">
         <v>-243690</v>
       </c>
-      <c r="L16" s="19"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="2"/>
-    </row>
-    <row r="17" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="19">
+      <c r="L16" s="34"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1"/>
+      <c r="B17" s="100"/>
+      <c r="C17" s="97"/>
+      <c r="D17" s="12">
         <v>20</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="13">
         <v>130000</v>
       </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="22" t="s">
+      <c r="F17" s="17"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="I17" s="20">
+      <c r="I17" s="33">
         <v>-19900</v>
       </c>
-      <c r="J17" s="19" t="s">
+      <c r="J17" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="K17" s="20">
+      <c r="K17" s="15">
         <f>-6300-23750-17640-7160-10000-8910-26000</f>
         <v>-99760</v>
       </c>
-      <c r="L17" s="19"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="45"/>
-      <c r="O17" s="45"/>
-      <c r="P17" s="2"/>
-    </row>
-    <row r="18" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="19">
+      <c r="L17" s="34"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1"/>
+      <c r="B18" s="100"/>
+      <c r="C18" s="97"/>
+      <c r="D18" s="12">
         <v>21</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="13">
         <v>100000</v>
       </c>
-      <c r="F18" s="19"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="19" t="s">
+      <c r="F18" s="17"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="K18" s="20">
+      <c r="K18" s="15">
         <v>-30800</v>
       </c>
-      <c r="L18" s="19"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="45"/>
-      <c r="O18" s="45"/>
-      <c r="P18" s="2"/>
-    </row>
-    <row r="19" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="19">
+      <c r="L18" s="34"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1"/>
+      <c r="B19" s="100"/>
+      <c r="C19" s="97"/>
+      <c r="D19" s="12">
         <v>22</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E19" s="13">
         <v>80000</v>
       </c>
-      <c r="F19" s="19"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="19" t="s">
+      <c r="F19" s="17"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="K19" s="20">
+      <c r="K19" s="15">
         <v>-650000</v>
       </c>
-      <c r="L19" s="19"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="45"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="2"/>
-    </row>
-    <row r="20" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="51">
+      <c r="L19" s="34"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1"/>
+      <c r="B20" s="100"/>
+      <c r="C20" s="97"/>
+      <c r="D20" s="36">
         <v>23</v>
       </c>
-      <c r="E20" s="52"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="51" t="s">
+      <c r="E20" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" s="38"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="K20" s="52">
+      <c r="K20" s="43">
         <v>-440000</v>
       </c>
-      <c r="L20" s="51"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="45"/>
-      <c r="O20" s="45"/>
-      <c r="P20" s="2"/>
-    </row>
-    <row r="21" spans="1:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="2"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="25" t="s">
+      <c r="L20" s="40"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="1:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="1"/>
+      <c r="B21" s="100"/>
+      <c r="C21" s="98"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="I21" s="26">
+      <c r="I21" s="45">
         <v>645000</v>
       </c>
-      <c r="J21" s="25" t="s">
+      <c r="J21" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="K21" s="26">
+      <c r="K21" s="23">
         <v>1250000</v>
       </c>
-      <c r="L21" s="53" t="s">
+      <c r="L21" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="M21" s="54">
+      <c r="M21" s="45">
         <v>1000000</v>
       </c>
-      <c r="N21" s="45"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="2"/>
-    </row>
-    <row r="22" spans="1:16" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="2"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="57" t="s">
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="1:16" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="1"/>
+      <c r="B22" s="101"/>
+      <c r="C22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="28">
+      <c r="D22" s="76">
         <f>SUM(E15:E21)</f>
         <v>560000</v>
       </c>
-      <c r="E22" s="29"/>
-      <c r="F22" s="30">
+      <c r="E22" s="77"/>
+      <c r="F22" s="79">
         <f>SUM(G15:G21)</f>
         <v>-112500</v>
       </c>
-      <c r="G22" s="29"/>
-      <c r="H22" s="30">
+      <c r="G22" s="77"/>
+      <c r="H22" s="79">
         <f t="shared" ref="H22" si="6">SUM(I15:I21)</f>
         <v>-315400</v>
       </c>
-      <c r="I22" s="29"/>
-      <c r="J22" s="30">
+      <c r="I22" s="77"/>
+      <c r="J22" s="79">
         <f t="shared" ref="J22" si="7">SUM(K15:K21)</f>
         <v>-344380</v>
       </c>
-      <c r="K22" s="29"/>
-      <c r="L22" s="30">
+      <c r="K22" s="77"/>
+      <c r="L22" s="79">
         <f t="shared" ref="L22" si="8">SUM(M15:M21)</f>
         <v>923500</v>
       </c>
-      <c r="M22" s="29"/>
-      <c r="N22" s="45"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="2"/>
-    </row>
-    <row r="23" spans="1:16" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="2"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="58" t="s">
+      <c r="M22" s="77"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="1:16" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="1"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="32">
+      <c r="D23" s="80">
         <f>SUM(N11,D22)</f>
         <v>506677</v>
       </c>
-      <c r="E23" s="33"/>
-      <c r="F23" s="34">
+      <c r="E23" s="67"/>
+      <c r="F23" s="66">
         <f>SUM(F22,D23)</f>
         <v>394177</v>
       </c>
-      <c r="G23" s="33"/>
-      <c r="H23" s="34">
+      <c r="G23" s="67"/>
+      <c r="H23" s="66">
         <f>SUM(H22,F23)</f>
         <v>78777</v>
       </c>
-      <c r="I23" s="33"/>
-      <c r="J23" s="34">
+      <c r="I23" s="67"/>
+      <c r="J23" s="66">
         <f t="shared" ref="J23" si="9">SUM(J22,H23)</f>
         <v>-265603</v>
       </c>
-      <c r="K23" s="33"/>
-      <c r="L23" s="34">
+      <c r="K23" s="67"/>
+      <c r="L23" s="66">
         <f t="shared" ref="L23" si="10">SUM(L22,J23)</f>
         <v>657897</v>
       </c>
-      <c r="M23" s="33"/>
-      <c r="N23" s="45"/>
-      <c r="O23" s="45"/>
-      <c r="P23" s="2"/>
-    </row>
-    <row r="24" spans="1:16" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="2"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="45"/>
-      <c r="O24" s="45"/>
-      <c r="P24" s="2"/>
-    </row>
-    <row r="25" spans="1:16" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="2"/>
-      <c r="B25" s="39" t="s">
+      <c r="M23" s="67"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="1:16" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="1"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="1:16" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="1"/>
+      <c r="B25" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="40"/>
-      <c r="D25" s="41" t="s">
+      <c r="C25" s="93"/>
+      <c r="D25" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="42"/>
-      <c r="F25" s="43" t="s">
+      <c r="E25" s="108"/>
+      <c r="F25" s="128" t="s">
         <v>50</v>
       </c>
-      <c r="G25" s="44"/>
-      <c r="H25" s="41" t="s">
+      <c r="G25" s="129"/>
+      <c r="H25" s="126" t="s">
         <v>53</v>
       </c>
-      <c r="I25" s="42"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="45"/>
-      <c r="O25" s="45"/>
-      <c r="P25" s="2"/>
-    </row>
-    <row r="26" spans="1:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="2"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="46" t="s">
+      <c r="I25" s="127"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="1"/>
+    </row>
+    <row r="26" spans="1:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="1"/>
+      <c r="B26" s="94"/>
+      <c r="C26" s="95"/>
+      <c r="D26" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="E26" s="47"/>
-      <c r="F26" s="46" t="s">
+      <c r="E26" s="111"/>
+      <c r="F26" s="124" t="s">
         <v>51</v>
       </c>
-      <c r="G26" s="47"/>
-      <c r="H26" s="46" t="s">
+      <c r="G26" s="125"/>
+      <c r="H26" s="124" t="s">
         <v>54</v>
       </c>
-      <c r="I26" s="47"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="45"/>
-      <c r="M26" s="45"/>
-      <c r="N26" s="45"/>
-      <c r="O26" s="45"/>
-      <c r="P26" s="2"/>
-    </row>
-    <row r="27" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14">
+      <c r="I26" s="125"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="1"/>
+    </row>
+    <row r="27" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1"/>
+      <c r="B27" s="99"/>
+      <c r="C27" s="96"/>
+      <c r="D27" s="5">
         <v>18</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E27" s="6">
         <v>80000</v>
       </c>
-      <c r="F27" s="14" t="s">
+      <c r="F27" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="G27" s="15">
+      <c r="G27" s="47">
         <v>-108000</v>
       </c>
-      <c r="H27" s="16" t="s">
+      <c r="H27" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="I27" s="15">
+      <c r="I27" s="47">
         <v>-22300</v>
       </c>
-      <c r="J27" s="45"/>
-      <c r="K27" s="45"/>
-      <c r="L27" s="45"/>
-      <c r="M27" s="45"/>
-      <c r="N27" s="45"/>
-      <c r="O27" s="45"/>
-      <c r="P27" s="2"/>
-    </row>
-    <row r="28" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="19">
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="1"/>
+    </row>
+    <row r="28" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1"/>
+      <c r="B28" s="100"/>
+      <c r="C28" s="97"/>
+      <c r="D28" s="12">
         <v>19</v>
       </c>
-      <c r="E28" s="20">
+      <c r="E28" s="13">
         <v>150000</v>
       </c>
-      <c r="F28" s="19"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="45"/>
-      <c r="M28" s="45"/>
-      <c r="N28" s="45"/>
-      <c r="O28" s="45"/>
-      <c r="P28" s="2"/>
-    </row>
-    <row r="29" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="19">
+      <c r="F28" s="49"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="1"/>
+    </row>
+    <row r="29" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="1"/>
+      <c r="B29" s="100"/>
+      <c r="C29" s="97"/>
+      <c r="D29" s="12">
         <v>20</v>
       </c>
-      <c r="E29" s="20">
+      <c r="E29" s="13">
         <v>140000</v>
       </c>
-      <c r="F29" s="19"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="45"/>
-      <c r="M29" s="45"/>
-      <c r="N29" s="45"/>
-      <c r="O29" s="45"/>
-      <c r="P29" s="2"/>
-    </row>
-    <row r="30" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="19">
+      <c r="F29" s="49"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="1"/>
+    </row>
+    <row r="30" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="1"/>
+      <c r="B30" s="100"/>
+      <c r="C30" s="97"/>
+      <c r="D30" s="12">
         <v>21</v>
       </c>
-      <c r="E30" s="20">
+      <c r="E30" s="13">
         <v>110000</v>
       </c>
-      <c r="F30" s="19"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="45"/>
-      <c r="L30" s="45"/>
-      <c r="M30" s="45"/>
-      <c r="N30" s="45"/>
-      <c r="O30" s="45"/>
-      <c r="P30" s="2"/>
-    </row>
-    <row r="31" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="19">
+      <c r="F30" s="49"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="1"/>
+    </row>
+    <row r="31" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="1"/>
+      <c r="B31" s="100"/>
+      <c r="C31" s="97"/>
+      <c r="D31" s="12">
         <v>22</v>
       </c>
-      <c r="E31" s="20">
+      <c r="E31" s="13">
         <v>80000</v>
       </c>
-      <c r="F31" s="19"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="45"/>
-      <c r="L31" s="45"/>
-      <c r="M31" s="45"/>
-      <c r="N31" s="45"/>
-      <c r="O31" s="45"/>
-      <c r="P31" s="2"/>
-    </row>
-    <row r="32" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="51">
+      <c r="F31" s="49"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="28"/>
+      <c r="P31" s="1"/>
+    </row>
+    <row r="32" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="1"/>
+      <c r="B32" s="100"/>
+      <c r="C32" s="97"/>
+      <c r="D32" s="36">
         <v>23</v>
       </c>
-      <c r="E32" s="52">
+      <c r="E32" s="37">
         <v>180000</v>
       </c>
-      <c r="F32" s="51"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="52"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="45"/>
-      <c r="M32" s="45"/>
-      <c r="N32" s="45"/>
-      <c r="O32" s="45"/>
-      <c r="P32" s="2"/>
-    </row>
-    <row r="33" spans="1:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="2"/>
-      <c r="B33" s="49"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="45"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="45"/>
-      <c r="M33" s="45"/>
-      <c r="N33" s="45"/>
-      <c r="O33" s="45"/>
-      <c r="P33" s="2"/>
-    </row>
-    <row r="34" spans="1:16" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="2"/>
-      <c r="B34" s="55"/>
-      <c r="C34" s="57" t="s">
+      <c r="F32" s="53"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="28"/>
+      <c r="P32" s="1"/>
+    </row>
+    <row r="33" spans="1:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="1"/>
+      <c r="B33" s="100"/>
+      <c r="C33" s="98"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="28"/>
+      <c r="O33" s="28"/>
+      <c r="P33" s="1"/>
+    </row>
+    <row r="34" spans="1:16" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="1"/>
+      <c r="B34" s="101"/>
+      <c r="C34" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D34" s="28">
+      <c r="D34" s="76">
         <f>SUM(E27:E33)</f>
         <v>740000</v>
       </c>
-      <c r="E34" s="29"/>
-      <c r="F34" s="30">
+      <c r="E34" s="77"/>
+      <c r="F34" s="79">
         <f>SUM(G27:G33)</f>
         <v>-108000</v>
       </c>
-      <c r="G34" s="29"/>
-      <c r="H34" s="30">
+      <c r="G34" s="77"/>
+      <c r="H34" s="79">
         <f t="shared" ref="H34" si="11">SUM(I27:I33)</f>
         <v>-22300</v>
       </c>
-      <c r="I34" s="29"/>
-      <c r="J34" s="45"/>
-      <c r="K34" s="45"/>
-      <c r="L34" s="45"/>
-      <c r="M34" s="45"/>
-      <c r="N34" s="45"/>
-      <c r="O34" s="45"/>
-      <c r="P34" s="2"/>
-    </row>
-    <row r="35" spans="1:16" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="2"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="58" t="s">
+      <c r="I34" s="77"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="28"/>
+      <c r="O34" s="28"/>
+      <c r="P34" s="1"/>
+    </row>
+    <row r="35" spans="1:16" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="1"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D35" s="32">
+      <c r="D35" s="80">
         <f>SUM(D34,L23)</f>
         <v>1397897</v>
       </c>
-      <c r="E35" s="33"/>
-      <c r="F35" s="34">
+      <c r="E35" s="67"/>
+      <c r="F35" s="66">
         <f>SUM(F34,D35)</f>
         <v>1289897</v>
       </c>
-      <c r="G35" s="33"/>
-      <c r="H35" s="34">
+      <c r="G35" s="67"/>
+      <c r="H35" s="66">
         <f>SUM(H34,F35)</f>
         <v>1267597</v>
       </c>
-      <c r="I35" s="33"/>
-      <c r="J35" s="45"/>
-      <c r="K35" s="45"/>
-      <c r="L35" s="45"/>
-      <c r="M35" s="45"/>
-      <c r="N35" s="45"/>
-      <c r="O35" s="45"/>
-      <c r="P35" s="2"/>
-    </row>
-    <row r="36" spans="1:16" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="2"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="38"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="45"/>
-      <c r="L36" s="45"/>
-      <c r="M36" s="45"/>
-      <c r="N36" s="45"/>
-      <c r="O36" s="45"/>
-      <c r="P36" s="2"/>
+      <c r="I35" s="67"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="28"/>
+      <c r="O35" s="28"/>
+      <c r="P35" s="1"/>
+    </row>
+    <row r="36" spans="1:16" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="1"/>
+      <c r="B36" s="81"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="28"/>
+      <c r="M36" s="28"/>
+      <c r="N36" s="28"/>
+      <c r="O36" s="28"/>
+      <c r="P36" s="1"/>
     </row>
     <row r="37" spans="1:16" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="2"/>
-      <c r="B37" s="39" t="s">
+      <c r="A37" s="1"/>
+      <c r="B37" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="40"/>
-      <c r="D37" s="41" t="s">
+      <c r="C37" s="93"/>
+      <c r="D37" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="E37" s="42"/>
-      <c r="F37" s="43" t="s">
+      <c r="E37" s="108"/>
+      <c r="F37" s="118" t="s">
         <v>57</v>
       </c>
-      <c r="G37" s="44"/>
-      <c r="H37" s="41" t="s">
+      <c r="G37" s="119"/>
+      <c r="H37" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="I37" s="42"/>
-      <c r="J37" s="41" t="s">
+      <c r="I37" s="117"/>
+      <c r="J37" s="84" t="s">
         <v>64</v>
       </c>
-      <c r="K37" s="42"/>
-      <c r="L37" s="41" t="s">
+      <c r="K37" s="104"/>
+      <c r="L37" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="M37" s="42"/>
-      <c r="N37" s="41" t="s">
+      <c r="M37" s="104"/>
+      <c r="N37" s="114" t="s">
         <v>72</v>
       </c>
-      <c r="O37" s="42"/>
-      <c r="P37" s="2"/>
+      <c r="O37" s="115"/>
+      <c r="P37" s="1"/>
     </row>
     <row r="38" spans="1:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="2"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="46" t="s">
+      <c r="A38" s="1"/>
+      <c r="B38" s="94"/>
+      <c r="C38" s="95"/>
+      <c r="D38" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="E38" s="47"/>
-      <c r="F38" s="46" t="s">
+      <c r="E38" s="111"/>
+      <c r="F38" s="112" t="s">
         <v>56</v>
       </c>
-      <c r="G38" s="47"/>
-      <c r="H38" s="46" t="s">
+      <c r="G38" s="113"/>
+      <c r="H38" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="I38" s="47"/>
-      <c r="J38" s="46" t="s">
+      <c r="I38" s="116"/>
+      <c r="J38" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="K38" s="47"/>
-      <c r="L38" s="46" t="s">
+      <c r="K38" s="105"/>
+      <c r="L38" s="86" t="s">
         <v>68</v>
       </c>
-      <c r="M38" s="47"/>
-      <c r="N38" s="46" t="s">
+      <c r="M38" s="105"/>
+      <c r="N38" s="112" t="s">
         <v>56</v>
       </c>
-      <c r="O38" s="47"/>
-      <c r="P38" s="2"/>
+      <c r="O38" s="113"/>
+      <c r="P38" s="1"/>
     </row>
     <row r="39" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="2"/>
-      <c r="B39" s="48"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="14">
+      <c r="A39" s="1"/>
+      <c r="B39" s="99"/>
+      <c r="C39" s="130"/>
+      <c r="D39" s="5">
         <v>18</v>
       </c>
-      <c r="E39" s="15">
+      <c r="E39" s="6">
         <v>80000</v>
       </c>
-      <c r="F39" s="14" t="s">
+      <c r="F39" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="G39" s="15">
+      <c r="G39" s="30">
         <v>-286000</v>
       </c>
-      <c r="H39" s="16" t="s">
+      <c r="H39" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I39" s="15">
+      <c r="I39" s="8">
         <v>-480000</v>
       </c>
-      <c r="J39" s="14" t="s">
+      <c r="J39" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="K39" s="15">
+      <c r="K39" s="11">
         <v>-105000</v>
       </c>
-      <c r="L39" s="14" t="s">
+      <c r="L39" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="M39" s="15">
+      <c r="M39" s="11">
         <v>-22990</v>
       </c>
-      <c r="N39" s="14" t="s">
+      <c r="N39" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="O39" s="15">
+      <c r="O39" s="30">
         <v>-374500</v>
       </c>
-      <c r="P39" s="2"/>
+      <c r="P39" s="1"/>
     </row>
     <row r="40" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="2"/>
-      <c r="B40" s="49"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="19">
+      <c r="A40" s="1"/>
+      <c r="B40" s="100"/>
+      <c r="C40" s="131"/>
+      <c r="D40" s="12">
         <v>19</v>
       </c>
-      <c r="E40" s="20">
+      <c r="E40" s="13">
         <v>150000</v>
       </c>
-      <c r="F40" s="19" t="s">
+      <c r="F40" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="G40" s="20">
+      <c r="G40" s="33">
         <v>-256500</v>
       </c>
-      <c r="H40" s="21" t="s">
+      <c r="H40" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="I40" s="20">
+      <c r="I40" s="15">
         <v>-22000</v>
       </c>
-      <c r="J40" s="19"/>
-      <c r="K40" s="20"/>
-      <c r="L40" s="19"/>
-      <c r="M40" s="20"/>
-      <c r="N40" s="19" t="s">
+      <c r="J40" s="17"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="18"/>
+      <c r="N40" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="O40" s="20">
+      <c r="O40" s="33">
         <v>-15500</v>
       </c>
-      <c r="P40" s="2"/>
+      <c r="P40" s="1"/>
     </row>
     <row r="41" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2"/>
-      <c r="B41" s="49"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="19">
+      <c r="A41" s="1"/>
+      <c r="B41" s="100"/>
+      <c r="C41" s="131"/>
+      <c r="D41" s="12">
         <v>20</v>
       </c>
-      <c r="E41" s="20">
+      <c r="E41" s="13">
         <v>140000</v>
       </c>
-      <c r="F41" s="19"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="19"/>
-      <c r="M41" s="20"/>
-      <c r="N41" s="19" t="s">
+      <c r="F41" s="34"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="18"/>
+      <c r="N41" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="O41" s="20">
+      <c r="O41" s="33">
         <f>-60500-21000-36000</f>
         <v>-117500</v>
       </c>
-      <c r="P41" s="2"/>
+      <c r="P41" s="1"/>
     </row>
     <row r="42" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="2"/>
-      <c r="B42" s="49"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="19">
+      <c r="A42" s="1"/>
+      <c r="B42" s="100"/>
+      <c r="C42" s="131"/>
+      <c r="D42" s="12">
         <v>21</v>
       </c>
-      <c r="E42" s="20">
+      <c r="E42" s="13">
         <v>110000</v>
       </c>
-      <c r="F42" s="19"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="19"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="19"/>
-      <c r="M42" s="20"/>
-      <c r="N42" s="19"/>
-      <c r="O42" s="20"/>
-      <c r="P42" s="2"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="43"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="18"/>
+      <c r="N42" s="34"/>
+      <c r="O42" s="33"/>
+      <c r="P42" s="1"/>
     </row>
     <row r="43" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="2"/>
-      <c r="B43" s="49"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="19">
+      <c r="A43" s="1"/>
+      <c r="B43" s="100"/>
+      <c r="C43" s="131"/>
+      <c r="D43" s="12">
         <v>22</v>
       </c>
-      <c r="E43" s="20">
+      <c r="E43" s="13">
         <v>80000</v>
       </c>
-      <c r="F43" s="19"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="20"/>
-      <c r="L43" s="19"/>
-      <c r="M43" s="20"/>
-      <c r="N43" s="19"/>
-      <c r="O43" s="20"/>
-      <c r="P43" s="2"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="18"/>
+      <c r="N43" s="34"/>
+      <c r="O43" s="33"/>
+      <c r="P43" s="1"/>
     </row>
     <row r="44" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="2"/>
-      <c r="B44" s="49"/>
-      <c r="C44" s="50"/>
-      <c r="D44" s="51">
+      <c r="A44" s="1"/>
+      <c r="B44" s="100"/>
+      <c r="C44" s="131"/>
+      <c r="D44" s="36">
         <v>23</v>
       </c>
-      <c r="E44" s="52">
+      <c r="E44" s="37">
         <v>180000</v>
       </c>
-      <c r="F44" s="51"/>
-      <c r="G44" s="52"/>
-      <c r="H44" s="51"/>
-      <c r="I44" s="52"/>
-      <c r="J44" s="51" t="s">
+      <c r="F44" s="40"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="38"/>
+      <c r="M44" s="39"/>
+      <c r="N44" s="40"/>
+      <c r="O44" s="41"/>
+      <c r="P44" s="1"/>
+    </row>
+    <row r="45" spans="1:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="1"/>
+      <c r="B45" s="100"/>
+      <c r="C45" s="132"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="G45" s="45">
+        <v>251500</v>
+      </c>
+      <c r="H45" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="I45" s="23">
+        <v>325000</v>
+      </c>
+      <c r="J45" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="K44" s="52">
+      <c r="K45" s="39">
         <v>193</v>
       </c>
-      <c r="L44" s="51"/>
-      <c r="M44" s="52"/>
-      <c r="N44" s="51"/>
-      <c r="O44" s="52"/>
-      <c r="P44" s="2"/>
-    </row>
-    <row r="45" spans="1:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="2"/>
-      <c r="B45" s="49"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="G45" s="26">
-        <v>251500</v>
-      </c>
-      <c r="H45" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="I45" s="26">
-        <v>325000</v>
-      </c>
-      <c r="J45" s="25"/>
-      <c r="K45" s="26"/>
-      <c r="L45" s="25"/>
-      <c r="M45" s="26"/>
-      <c r="N45" s="25" t="s">
+      <c r="L45" s="24"/>
+      <c r="M45" s="25"/>
+      <c r="N45" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="O45" s="26">
+      <c r="O45" s="45">
         <v>197500</v>
       </c>
-      <c r="P45" s="2"/>
+      <c r="P45" s="1"/>
     </row>
     <row r="46" spans="1:16" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="2"/>
-      <c r="B46" s="55"/>
-      <c r="C46" s="57" t="s">
+      <c r="A46" s="1"/>
+      <c r="B46" s="101"/>
+      <c r="C46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D46" s="28">
+      <c r="D46" s="76">
         <f>SUM(E39:E45)</f>
         <v>740000</v>
       </c>
-      <c r="E46" s="29"/>
-      <c r="F46" s="30">
+      <c r="E46" s="77"/>
+      <c r="F46" s="79">
         <f>SUM(G39:G45)</f>
         <v>-291000</v>
       </c>
-      <c r="G46" s="29"/>
-      <c r="H46" s="30">
+      <c r="G46" s="77"/>
+      <c r="H46" s="79">
         <f t="shared" ref="H46" si="12">SUM(I39:I45)</f>
         <v>-177000</v>
       </c>
-      <c r="I46" s="29"/>
-      <c r="J46" s="30">
-        <f t="shared" ref="J46" si="13">SUM(K39:K45)</f>
+      <c r="I46" s="77"/>
+      <c r="J46" s="79">
+        <f>SUM(K39:K45)</f>
         <v>-104807</v>
       </c>
-      <c r="K46" s="29"/>
-      <c r="L46" s="30">
-        <f t="shared" ref="L46:N46" si="14">SUM(M39:M45)</f>
+      <c r="K46" s="77"/>
+      <c r="L46" s="79">
+        <f t="shared" ref="L46:N46" si="13">SUM(M39:M45)</f>
         <v>-22990</v>
       </c>
-      <c r="M46" s="29"/>
-      <c r="N46" s="30">
-        <f t="shared" si="14"/>
+      <c r="M46" s="77"/>
+      <c r="N46" s="79">
+        <f t="shared" si="13"/>
         <v>-310000</v>
       </c>
-      <c r="O46" s="29"/>
-      <c r="P46" s="2"/>
+      <c r="O46" s="77"/>
+      <c r="P46" s="1"/>
     </row>
     <row r="47" spans="1:16" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="2"/>
-      <c r="B47" s="31"/>
-      <c r="C47" s="58" t="s">
+      <c r="A47" s="1"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D47" s="32">
+      <c r="D47" s="80">
         <f>SUM(D46,H35)</f>
         <v>2007597</v>
       </c>
-      <c r="E47" s="33"/>
-      <c r="F47" s="34">
+      <c r="E47" s="67"/>
+      <c r="F47" s="66">
         <f>SUM(F46,D47)</f>
         <v>1716597</v>
       </c>
-      <c r="G47" s="33"/>
-      <c r="H47" s="34">
+      <c r="G47" s="67"/>
+      <c r="H47" s="66">
         <f>SUM(H46,F47)</f>
         <v>1539597</v>
       </c>
-      <c r="I47" s="33"/>
-      <c r="J47" s="34">
-        <f t="shared" ref="J47" si="15">SUM(J46,H47)</f>
+      <c r="I47" s="67"/>
+      <c r="J47" s="66">
+        <f t="shared" ref="J47" si="14">SUM(J46,H47)</f>
         <v>1434790</v>
       </c>
-      <c r="K47" s="33"/>
-      <c r="L47" s="34">
-        <f t="shared" ref="L47" si="16">SUM(L46,J47)</f>
+      <c r="K47" s="67"/>
+      <c r="L47" s="66">
+        <f t="shared" ref="L47" si="15">SUM(L46,J47)</f>
         <v>1411800</v>
       </c>
-      <c r="M47" s="33"/>
-      <c r="N47" s="34">
-        <f t="shared" ref="N47" si="17">SUM(N46,L47)</f>
+      <c r="M47" s="67"/>
+      <c r="N47" s="66">
+        <f t="shared" ref="N47" si="16">SUM(N46,L47)</f>
         <v>1101800</v>
       </c>
-      <c r="O47" s="33"/>
-      <c r="P47" s="2"/>
+      <c r="O47" s="67"/>
+      <c r="P47" s="1"/>
     </row>
     <row r="48" spans="1:16" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="2"/>
-      <c r="B48" s="35"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="37"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="38"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="38"/>
-      <c r="J48" s="37"/>
-      <c r="K48" s="38"/>
-      <c r="L48" s="37"/>
-      <c r="M48" s="38"/>
-      <c r="N48" s="37"/>
-      <c r="O48" s="38"/>
-      <c r="P48" s="2"/>
-    </row>
-    <row r="49" spans="1:16" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="2"/>
-      <c r="B49" s="39" t="s">
+      <c r="A48" s="1"/>
+      <c r="B48" s="81"/>
+      <c r="C48" s="82"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="57"/>
+      <c r="K48" s="58"/>
+      <c r="L48" s="57"/>
+      <c r="M48" s="58"/>
+      <c r="N48" s="26"/>
+      <c r="O48" s="27"/>
+      <c r="P48" s="1"/>
+    </row>
+    <row r="49" spans="1:25" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="1"/>
+      <c r="B49" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="C49" s="40"/>
-      <c r="D49" s="41" t="s">
+      <c r="C49" s="93"/>
+      <c r="D49" s="109" t="s">
         <v>48</v>
       </c>
-      <c r="E49" s="42"/>
-      <c r="F49" s="43" t="s">
+      <c r="E49" s="110"/>
+      <c r="F49" s="106" t="s">
         <v>74</v>
       </c>
-      <c r="G49" s="44"/>
-      <c r="H49" s="41" t="s">
+      <c r="G49" s="107"/>
+      <c r="H49" s="84" t="s">
         <v>77</v>
       </c>
-      <c r="I49" s="42"/>
-      <c r="J49" s="41" t="s">
+      <c r="I49" s="104"/>
+      <c r="J49" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="K49" s="42"/>
-      <c r="L49" s="41"/>
-      <c r="M49" s="42"/>
-      <c r="N49" s="45"/>
-      <c r="O49" s="45"/>
-      <c r="P49" s="2"/>
-    </row>
-    <row r="50" spans="1:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="2"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="46" t="s">
+      <c r="K49" s="136"/>
+      <c r="L49" s="136"/>
+      <c r="M49" s="136"/>
+      <c r="N49" s="136"/>
+      <c r="O49" s="117"/>
+      <c r="P49" s="1"/>
+    </row>
+    <row r="50" spans="1:25" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="1"/>
+      <c r="B50" s="94"/>
+      <c r="C50" s="95"/>
+      <c r="D50" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="E50" s="47"/>
-      <c r="F50" s="46" t="s">
+      <c r="E50" s="108"/>
+      <c r="F50" s="86" t="s">
         <v>75</v>
       </c>
-      <c r="G50" s="47"/>
-      <c r="H50" s="46" t="s">
+      <c r="G50" s="105"/>
+      <c r="H50" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="I50" s="47"/>
-      <c r="J50" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="K50" s="47"/>
-      <c r="L50" s="46"/>
-      <c r="M50" s="47"/>
-      <c r="N50" s="45"/>
-      <c r="O50" s="45"/>
-      <c r="P50" s="2"/>
-    </row>
-    <row r="51" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="2"/>
-      <c r="B51" s="48"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="14">
+      <c r="I50" s="105"/>
+      <c r="J50" s="74" t="s">
+        <v>91</v>
+      </c>
+      <c r="K50" s="135"/>
+      <c r="L50" s="135"/>
+      <c r="M50" s="135"/>
+      <c r="N50" s="135"/>
+      <c r="O50" s="116"/>
+      <c r="P50" s="1"/>
+    </row>
+    <row r="51" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="99"/>
+      <c r="C51" s="96"/>
+      <c r="D51" s="5">
         <v>18</v>
       </c>
-      <c r="E51" s="15">
+      <c r="E51" s="6">
         <v>80000</v>
       </c>
-      <c r="F51" s="14" t="s">
+      <c r="F51" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G51" s="15">
+      <c r="G51" s="11">
         <f>-149300-79700-114660+50160+35280-24520</f>
         <v>-282740</v>
       </c>
-      <c r="H51" s="16" t="s">
+      <c r="H51" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="I51" s="15">
+      <c r="I51" s="11">
         <v>-24000</v>
       </c>
-      <c r="J51" s="14" t="s">
+      <c r="J51" s="141" t="s">
         <v>79</v>
       </c>
-      <c r="K51" s="15">
+      <c r="K51" s="141"/>
+      <c r="L51" s="60">
         <v>-350000</v>
       </c>
-      <c r="L51" s="14"/>
-      <c r="M51" s="15"/>
-      <c r="N51" s="45"/>
-      <c r="O51" s="45"/>
-      <c r="P51" s="2"/>
-    </row>
-    <row r="52" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="2"/>
-      <c r="B52" s="49"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="19">
+      <c r="M51" s="142" t="s">
+        <v>88</v>
+      </c>
+      <c r="N51" s="142"/>
+      <c r="O51" s="61">
+        <v>-390000</v>
+      </c>
+      <c r="P51" s="1"/>
+    </row>
+    <row r="52" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1"/>
+      <c r="B52" s="100"/>
+      <c r="C52" s="97"/>
+      <c r="D52" s="12">
         <v>19</v>
       </c>
-      <c r="E52" s="20">
+      <c r="E52" s="13">
         <v>150000</v>
       </c>
-      <c r="F52" s="19"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="19" t="s">
+      <c r="F52" s="17"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="39"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="140" t="s">
         <v>82</v>
       </c>
-      <c r="K52" s="20">
-        <v>-91140</v>
-      </c>
-      <c r="L52" s="19"/>
-      <c r="M52" s="20"/>
-      <c r="N52" s="45"/>
-      <c r="O52" s="45"/>
-      <c r="P52" s="2"/>
-    </row>
-    <row r="53" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="2"/>
-      <c r="B53" s="49"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="19">
+      <c r="K52" s="140"/>
+      <c r="L52" s="16">
+        <f>-91140-306670</f>
+        <v>-397810</v>
+      </c>
+      <c r="M52" s="138" t="s">
+        <v>87</v>
+      </c>
+      <c r="N52" s="138"/>
+      <c r="O52" s="16">
+        <v>-30000</v>
+      </c>
+      <c r="P52" s="1"/>
+    </row>
+    <row r="53" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1"/>
+      <c r="B53" s="100"/>
+      <c r="C53" s="97"/>
+      <c r="D53" s="12">
         <v>20</v>
       </c>
-      <c r="E53" s="20">
+      <c r="E53" s="13">
         <v>130000</v>
       </c>
-      <c r="F53" s="19"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="22"/>
-      <c r="I53" s="20"/>
-      <c r="J53" s="19"/>
-      <c r="K53" s="20"/>
-      <c r="L53" s="19"/>
-      <c r="M53" s="20"/>
-      <c r="N53" s="45"/>
-      <c r="O53" s="45"/>
-      <c r="P53" s="2"/>
-    </row>
-    <row r="54" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="2"/>
-      <c r="B54" s="49"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="19">
+      <c r="F53" s="17"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="139" t="s">
+        <v>84</v>
+      </c>
+      <c r="K53" s="139"/>
+      <c r="L53" s="16">
+        <v>-70000</v>
+      </c>
+      <c r="M53" s="138" t="s">
+        <v>89</v>
+      </c>
+      <c r="N53" s="138"/>
+      <c r="O53" s="16">
+        <v>-580000</v>
+      </c>
+      <c r="P53" s="1"/>
+    </row>
+    <row r="54" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1"/>
+      <c r="B54" s="100"/>
+      <c r="C54" s="97"/>
+      <c r="D54" s="12">
         <v>21</v>
       </c>
-      <c r="E54" s="20">
+      <c r="E54" s="13">
         <v>100000</v>
       </c>
-      <c r="F54" s="19"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="20"/>
-      <c r="J54" s="19"/>
-      <c r="K54" s="20"/>
-      <c r="L54" s="19"/>
-      <c r="M54" s="20"/>
-      <c r="N54" s="45"/>
-      <c r="O54" s="45"/>
-      <c r="P54" s="2"/>
-    </row>
-    <row r="55" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="2"/>
-      <c r="B55" s="49"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="19">
+      <c r="F54" s="17"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="18"/>
+      <c r="J54" s="138" t="s">
+        <v>85</v>
+      </c>
+      <c r="K54" s="138"/>
+      <c r="L54" s="16">
+        <v>-49900</v>
+      </c>
+      <c r="M54" s="138"/>
+      <c r="N54" s="138"/>
+      <c r="O54" s="16"/>
+      <c r="P54" s="1"/>
+    </row>
+    <row r="55" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1"/>
+      <c r="B55" s="100"/>
+      <c r="C55" s="97"/>
+      <c r="D55" s="12">
         <v>22</v>
       </c>
-      <c r="E55" s="20">
+      <c r="E55" s="13">
         <v>80000</v>
       </c>
-      <c r="F55" s="19"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="19"/>
-      <c r="I55" s="20"/>
-      <c r="J55" s="19"/>
-      <c r="K55" s="20"/>
-      <c r="L55" s="19"/>
-      <c r="M55" s="20"/>
-      <c r="N55" s="45"/>
-      <c r="O55" s="45"/>
-      <c r="P55" s="2"/>
-    </row>
-    <row r="56" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="2"/>
-      <c r="B56" s="49"/>
-      <c r="C56" s="50"/>
-      <c r="D56" s="51">
+      <c r="F55" s="17"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="18"/>
+      <c r="J55" s="138" t="s">
+        <v>86</v>
+      </c>
+      <c r="K55" s="138"/>
+      <c r="L55" s="16">
+        <v>-246370</v>
+      </c>
+      <c r="M55" s="138"/>
+      <c r="N55" s="138"/>
+      <c r="O55" s="16"/>
+      <c r="P55" s="1"/>
+      <c r="Y55" s="64"/>
+    </row>
+    <row r="56" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1"/>
+      <c r="B56" s="100"/>
+      <c r="C56" s="97"/>
+      <c r="D56" s="36">
         <v>23</v>
       </c>
-      <c r="E56" s="52">
+      <c r="E56" s="37">
         <v>180000</v>
       </c>
-      <c r="F56" s="51"/>
-      <c r="G56" s="52"/>
-      <c r="H56" s="51"/>
-      <c r="I56" s="52"/>
-      <c r="J56" s="51"/>
-      <c r="K56" s="52"/>
-      <c r="L56" s="51"/>
-      <c r="M56" s="52"/>
-      <c r="N56" s="45"/>
-      <c r="O56" s="45"/>
-      <c r="P56" s="2"/>
-    </row>
-    <row r="57" spans="1:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="2"/>
-      <c r="B57" s="49"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="26"/>
-      <c r="H57" s="25"/>
-      <c r="I57" s="26"/>
-      <c r="J57" s="25" t="s">
+      <c r="F56" s="38"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="38"/>
+      <c r="I56" s="39"/>
+      <c r="J56" s="138"/>
+      <c r="K56" s="138"/>
+      <c r="L56" s="16"/>
+      <c r="M56" s="138"/>
+      <c r="N56" s="138"/>
+      <c r="O56" s="16"/>
+      <c r="P56" s="1"/>
+    </row>
+    <row r="57" spans="1:25" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="1"/>
+      <c r="B57" s="100"/>
+      <c r="C57" s="98"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="137"/>
+      <c r="K57" s="137"/>
+      <c r="L57" s="65"/>
+      <c r="M57" s="141" t="s">
         <v>71</v>
       </c>
-      <c r="K57" s="26">
-        <f>17*50000</f>
-        <v>850000</v>
-      </c>
-      <c r="L57" s="25"/>
-      <c r="M57" s="26"/>
-      <c r="N57" s="45"/>
-      <c r="O57" s="45"/>
-      <c r="P57" s="2"/>
-    </row>
-    <row r="58" spans="1:16" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="2"/>
-      <c r="B58" s="55"/>
-      <c r="C58" s="57" t="s">
+      <c r="N57" s="141"/>
+      <c r="O57" s="61">
+        <f>1400000</f>
+        <v>1400000</v>
+      </c>
+      <c r="P57" s="1"/>
+    </row>
+    <row r="58" spans="1:25" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="1"/>
+      <c r="B58" s="101"/>
+      <c r="C58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D58" s="28">
+      <c r="D58" s="76">
         <f>SUM(E51:E57)</f>
         <v>720000</v>
       </c>
-      <c r="E58" s="29"/>
-      <c r="F58" s="30">
+      <c r="E58" s="77"/>
+      <c r="F58" s="79">
         <f>SUM(G51:G57)</f>
         <v>-282740</v>
       </c>
-      <c r="G58" s="29"/>
-      <c r="H58" s="30">
-        <f t="shared" ref="H58" si="18">SUM(I51:I57)</f>
+      <c r="G58" s="77"/>
+      <c r="H58" s="79">
+        <f t="shared" ref="H58" si="17">SUM(I51:I57)</f>
         <v>-24000</v>
       </c>
-      <c r="I58" s="29"/>
-      <c r="J58" s="30">
-        <f t="shared" ref="J58" si="19">SUM(K51:K57)</f>
-        <v>408860</v>
-      </c>
-      <c r="K58" s="29"/>
-      <c r="L58" s="30">
-        <f t="shared" ref="L58" si="20">SUM(M51:M57)</f>
-        <v>0</v>
-      </c>
-      <c r="M58" s="29"/>
-      <c r="N58" s="45"/>
-      <c r="O58" s="45"/>
-      <c r="P58" s="2"/>
-    </row>
-    <row r="59" spans="1:16" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="2"/>
-      <c r="B59" s="31"/>
-      <c r="C59" s="58" t="s">
+      <c r="I58" s="77"/>
+      <c r="J58" s="102">
+        <f>SUM(L51:L57)</f>
+        <v>-1114080</v>
+      </c>
+      <c r="K58" s="103"/>
+      <c r="L58" s="143"/>
+      <c r="M58" s="102">
+        <f>SUM(O51:O57)</f>
+        <v>400000</v>
+      </c>
+      <c r="N58" s="103"/>
+      <c r="O58" s="103"/>
+      <c r="P58" s="1"/>
+    </row>
+    <row r="59" spans="1:25" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="1"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D59" s="32">
+      <c r="D59" s="80">
         <f>SUM(N47,D58)</f>
         <v>1821800</v>
       </c>
-      <c r="E59" s="33"/>
-      <c r="F59" s="34">
+      <c r="E59" s="67"/>
+      <c r="F59" s="66">
         <f>SUM(F58,D59)</f>
         <v>1539060</v>
       </c>
-      <c r="G59" s="33"/>
-      <c r="H59" s="34">
+      <c r="G59" s="67"/>
+      <c r="H59" s="66">
         <f>SUM(H58,F59)</f>
         <v>1515060</v>
       </c>
-      <c r="I59" s="33"/>
-      <c r="J59" s="34">
-        <f t="shared" ref="J59" si="21">SUM(J58,H59)</f>
-        <v>1923920</v>
-      </c>
-      <c r="K59" s="33"/>
-      <c r="L59" s="34">
-        <f t="shared" ref="L59" si="22">SUM(L58,J59)</f>
-        <v>1923920</v>
-      </c>
-      <c r="M59" s="33"/>
-      <c r="N59" s="45"/>
-      <c r="O59" s="45"/>
-      <c r="P59" s="2"/>
-    </row>
-    <row r="60" spans="1:16" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="2"/>
-      <c r="B60" s="35"/>
-      <c r="C60" s="36"/>
-      <c r="D60" s="37"/>
-      <c r="E60" s="38"/>
-      <c r="F60" s="37"/>
-      <c r="G60" s="38"/>
-      <c r="H60" s="37"/>
-      <c r="I60" s="38"/>
-      <c r="J60" s="37"/>
-      <c r="K60" s="38"/>
-      <c r="L60" s="37"/>
-      <c r="M60" s="38"/>
-      <c r="N60" s="45"/>
-      <c r="O60" s="45"/>
-      <c r="P60" s="2"/>
-    </row>
-    <row r="61" spans="1:16" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
-      <c r="L61" s="2"/>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
-      <c r="P61" s="2"/>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
-      <c r="K62" s="2"/>
-      <c r="L62" s="2"/>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
-      <c r="P62" s="2"/>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
-      <c r="J63" s="2"/>
-      <c r="K63" s="2"/>
-      <c r="L63" s="2"/>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
-      <c r="P63" s="2"/>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
-      <c r="K64" s="2"/>
-      <c r="L64" s="2"/>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
-      <c r="P64" s="2"/>
+      <c r="I59" s="67"/>
+      <c r="J59" s="134">
+        <f t="shared" ref="J59" si="18">SUM(J58,H59)</f>
+        <v>400980</v>
+      </c>
+      <c r="K59" s="134"/>
+      <c r="L59" s="134"/>
+      <c r="M59" s="66">
+        <f>SUM(M58,J59)</f>
+        <v>800980</v>
+      </c>
+      <c r="N59" s="133"/>
+      <c r="O59" s="133"/>
+      <c r="P59" s="1"/>
+    </row>
+    <row r="60" spans="1:25" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="1"/>
+      <c r="B60" s="81"/>
+      <c r="C60" s="82"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="26"/>
+      <c r="I60" s="27"/>
+      <c r="J60" s="62"/>
+      <c r="K60" s="63"/>
+      <c r="L60" s="63"/>
+      <c r="M60" s="26"/>
+      <c r="N60" s="27"/>
+      <c r="O60" s="27"/>
+      <c r="P60" s="1"/>
+    </row>
+    <row r="61" spans="1:25" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
-      <c r="J65" s="2"/>
-      <c r="K65" s="2"/>
-      <c r="L65" s="2"/>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
-      <c r="P65" s="2"/>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
-      <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
-      <c r="N66" s="1"/>
-      <c r="O66" s="1"/>
-      <c r="P66" s="1"/>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
-      <c r="L67" s="1"/>
-      <c r="M67" s="1"/>
-      <c r="N67" s="1"/>
-      <c r="O67" s="1"/>
-      <c r="P67" s="1"/>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
-      <c r="L68" s="1"/>
-      <c r="M68" s="1"/>
-      <c r="N68" s="1"/>
-      <c r="O68" s="1"/>
-      <c r="P68" s="1"/>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
-      <c r="K69" s="1"/>
-      <c r="L69" s="1"/>
-      <c r="M69" s="1"/>
-      <c r="N69" s="1"/>
-      <c r="O69" s="1"/>
-      <c r="P69" s="1"/>
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="70">
-    <mergeCell ref="L58:M58"/>
+  <mergeCells count="133">
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="J58:L58"/>
+    <mergeCell ref="C4:C9"/>
+    <mergeCell ref="C27:C33"/>
+    <mergeCell ref="C15:C21"/>
+    <mergeCell ref="C39:C45"/>
+    <mergeCell ref="B39:B46"/>
+    <mergeCell ref="B27:B34"/>
+    <mergeCell ref="B15:B22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="J59:L59"/>
+    <mergeCell ref="J50:O50"/>
+    <mergeCell ref="J49:O49"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B37:C38"/>
+    <mergeCell ref="B25:C26"/>
+    <mergeCell ref="B13:C14"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="B49:C50"/>
+    <mergeCell ref="C51:C57"/>
+    <mergeCell ref="B51:B58"/>
+    <mergeCell ref="M58:O58"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="D10:E10"/>
     <mergeCell ref="B1:O1"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D34:E34"/>
@@ -3359,63 +4069,13 @@
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="H34:I34"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="J14:K14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>